--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -64,6 +64,47 @@
   </si>
   <si>
     <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会需要我教你这个是什么吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/item_gold</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/item_diamond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -435,20 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +501,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,8 +515,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,21 +529,39 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -105,6 +105,79 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子枪碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子枪的碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EAPONPIECE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Com.Quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULL</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Item.ItemType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,22 +549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,11 +576,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,11 +596,17 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -530,13 +617,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -544,13 +637,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -558,14 +657,41 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -160,24 +160,11 @@
     <t>PURPLE</t>
   </si>
   <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ULL</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Enums.Item.ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +539,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -677,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -165,6 +165,119 @@
   </si>
   <si>
     <t>BLUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REEN</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LUE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RANGE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ED</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线箱子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,6 +789,72 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>3002</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>3003</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>3004</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>3005</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -278,6 +278,39 @@
   </si>
   <si>
     <t>在线箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEST</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Beans.Item_Draw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,1,1,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后转换为</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,13 +693,13 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,11 +715,14 @@
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -702,11 +738,14 @@
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,13 +762,16 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -742,14 +784,15 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -762,14 +805,15 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>2001</v>
       </c>
@@ -782,14 +826,15 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -798,9 +843,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3001</v>
       </c>
@@ -810,8 +856,14 @@
       <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>3002</v>
       </c>
@@ -821,8 +873,11 @@
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3003</v>
       </c>
@@ -832,8 +887,11 @@
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>3004</v>
       </c>
@@ -843,8 +901,11 @@
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>3005</v>
       </c>
@@ -853,6 +914,9 @@
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -876,6 +876,9 @@
       <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -890,6 +893,9 @@
       <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -904,6 +910,9 @@
       <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -917,6 +926,9 @@
       </c>
       <c r="E12" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -685,7 +685,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -311,6 +311,23 @@
   </si>
   <si>
     <t>使用后转换为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tems/item_chest</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +702,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,6 +879,9 @@
       <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -879,6 +899,9 @@
       <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -896,6 +919,9 @@
       <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -913,6 +939,9 @@
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -929,6 +958,9 @@
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -306,14 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DROP,1,1,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后转换为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -328,6 +320,15 @@
       </rPr>
       <t>tems/item_chest</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,1,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后转换为
+（此处第四个参数一定是概率万分数）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +706,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,8 +782,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -877,10 +881,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -897,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -917,10 +921,10 @@
         <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,10 +941,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,10 +961,10 @@
         <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -706,7 +706,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,8 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="35.875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -964,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -108,14 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>离子枪碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子枪的碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>道具类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,12 +315,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DROP,1,1,10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用后转换为
 （此处第四个参数一定是概率万分数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子枪碎片</t>
+  </si>
+  <si>
+    <t>磁轨炮碎片</t>
+  </si>
+  <si>
+    <t>自爆虫碎片</t>
+  </si>
+  <si>
+    <t>朗基努斯之枪碎片</t>
+  </si>
+  <si>
+    <t>星链计划碎片</t>
+  </si>
+  <si>
+    <t>长镰碎片</t>
+  </si>
+  <si>
+    <t>辐射碎片</t>
+  </si>
+  <si>
+    <t>抱脸虫碎片</t>
+  </si>
+  <si>
+    <t>曼陀罗碎片</t>
+  </si>
+  <si>
+    <t>水滴碎片</t>
+  </si>
+  <si>
+    <t>自动卫星碎片</t>
+  </si>
+  <si>
+    <t>黑鱼碎片</t>
+  </si>
+  <si>
+    <t>武器碎片，用于武器升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,101,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,102,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,103,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,104,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP,105,1,10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,16 +751,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
@@ -732,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -755,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -801,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -822,10 +870,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -840,131 +888,362 @@
         <v>2001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>3001</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>2003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>3002</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>2004</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>3003</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>2005</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>3004</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>2006</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>3002</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>3003</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>3004</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
         <v>3005</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>DROP,105,1,10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORANGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +762,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,7 +962,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -975,7 +983,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -996,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -1017,7 +1025,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -1038,7 +1046,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -1059,7 +1067,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>19</v>
@@ -1080,7 +1088,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
@@ -1101,7 +1109,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -1122,7 +1130,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -385,6 +385,10 @@
   </si>
   <si>
     <t>ORANGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +766,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>GREEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个item的合并，不同item的不合并</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>2012</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1159,7 +1166,7 @@
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>3001</v>
       </c>
@@ -1178,8 +1185,11 @@
       <c r="H19" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>3002</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>3003</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>3004</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>3005</v>
       </c>

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -393,6 +393,10 @@
   </si>
   <si>
     <t>同一个item的合并，不同item的不合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -773,17 +777,17 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="35.875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -799,12 +803,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -822,12 +829,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -845,16 +855,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -868,15 +878,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
@@ -889,15 +899,15 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
@@ -910,15 +920,15 @@
         <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
@@ -931,15 +941,15 @@
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
@@ -952,15 +962,15 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -973,15 +983,15 @@
         <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -994,15 +1004,15 @@
         <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1015,15 +1025,15 @@
         <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1036,15 +1046,15 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1057,15 +1067,15 @@
         <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1078,15 +1088,15 @@
         <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1099,15 +1109,15 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1120,15 +1130,15 @@
         <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1141,15 +1151,15 @@
         <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1161,9 +1171,9 @@
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1173,13 +1183,13 @@
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1196,13 +1206,13 @@
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1216,13 +1226,13 @@
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1236,13 +1246,13 @@
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1256,13 +1266,13 @@
       <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="3" t="s">

--- a/_ConfigExcels/Datas/item.xlsx
+++ b/_ConfigExcels/Datas/item.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -397,6 +397,10 @@
   </si>
   <si>
     <t>text_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Weapon/weapon_piece</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +781,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H7" sqref="H7:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -930,7 +934,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -951,7 +955,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,7 +976,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -993,7 +997,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1014,7 +1018,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,7 +1039,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1056,7 +1060,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1077,7 +1081,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1098,7 +1102,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,7 +1123,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1140,7 +1144,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,7 +1165,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
